--- a/exam_data.xlsx
+++ b/exam_data.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="工作表1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="test.docx" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="表格格式" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="test" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20190311Python教學考古選擇題" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -19,7 +20,7 @@
   <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="12"/>
@@ -46,8 +47,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -135,39 +139,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -219,7 +223,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -330,6 +334,13 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -338,13 +349,6 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -409,31 +413,11 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -445,14 +429,52 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15.5"/>
+  <sheetData>
+    <row r="1" customFormat="1" s="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>題目</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>題目圖片</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>正確答案</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>選項1</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>選項2</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>選項3</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>選項4</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -463,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:F46"/>
+  <dimension ref="A2:G63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,25 +496,30 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>（A）：下列有關應用服務供應商（ASP）的敘述哪一項正確？</t>
+          <t>( )：下列有關應用服務供應商（ASP）的敘述哪一項正確？</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>A：提供網際網路軟體應用程式的使用權給其他企業的公司</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>B：以販賣網路設備業務為主的Cisco，為ASP著名的公司</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>C：ASP是一套工具，可以用來撰寫遊戲軟體</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>D：海灣公司（eBay）就屬於這類的電子商務公司</t>
         </is>
@@ -501,1188 +528,6548 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>（B）：傳統零售通路商在網路上設立網站做生意，此類零售商被稱為下列哪一項？</t>
+          <t>( )：傳統零售通路商在網路上設立網站做生意，此類零售商被稱為下列哪一項？</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>A：傳統企業可用來建立與其他企業間的商業連結模式</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>B：讓消費者之間可以直接交易</t>
+          <t>A：Bricks and Mortar</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>C：想買二手書籍、電影、音樂、遊戲的使用者可以在網路上與其他使用者交易</t>
+          <t>B：Bricks and Clicks</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>D：仲介資訊服務內容取得</t>
+          <t>C：Pure.com</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>D：E-Marketing</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>（C）：下列哪一項為較早發展的電子商務技術應用？</t>
+          <t>( )：CC電子商務主要的任務為下列哪些？(複選題)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>A：JAVA</t>
+          <t>BC</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>B：XML</t>
+          <t>A：傳統企業可用來建立與其他企業間的商業連結模式</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>C：EDI</t>
+          <t>B：讓消費者之間可以直接交易</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>D：VRML</t>
+          <t>C：想買二手書籍、電影、音樂、遊戲的使用者可以在網路上與其他使用者交易</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>D：仲介資訊服務內容取得</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>（C）：就B2B電子商務的四個發展階段：a.基礎電子商務階段、b.電子交易市集階段、c.電子資料交換網路階段、d.協同商務階段，依照早期到現今的順序進行排列，下列哪一項正確？</t>
+          <t>( )：下列哪一項為較早發展的電子商務技術應用？</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>A：abcd</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>B：acbd</t>
+          <t>A：JAVA</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>C：cabd</t>
+          <t>B：XML</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>D：cbad</t>
+          <t>C：EDI</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>D：VRML</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>（B）：「結合電腦與通訊方式，採用電子資料交換方式，取代傳統商業下單/接單及相關作業的自動化訂貨系統」，請問這是經濟部商業司對於下列哪一項的定義？</t>
+          <t>( )：就BB電子商務的四個發展階段：a.基礎電子商務階段、b.電子交易市集階段、c.電子資料交換網路階段、d.協同商務階段，依照早期到現今的順序進行排列，下列哪一項正確？</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>A：鼓勵消費者透過實體店面下單</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>B：迎合兼顧實體通路與虛擬通路的電子商務趨勢</t>
+          <t>A：abcd</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>C：讓消費者可以在線上下單，再前往實體店面取得產品與服務</t>
+          <t>B：acbd</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>D：利用宅配將貨物送到府，在家享受產品與服務</t>
+          <t>C：cabd</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>D：cbad</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>（D）：下列有關電子商務促成者的類型與公司之配對說明哪一項錯誤？</t>
+          <t>( )：「結合電腦與通訊方式，採用電子資料交換方式，取代傳統商業下單/接單及相關作業的自動化訂貨系統」，請問這是經濟部商業司對於下列哪一項的定義？</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>A：硬體：IBM、Sun</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>B：網路（路由器）：Cisco</t>
+          <t>A：POS（Point Of Sale）</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>C：安全服務：VeriSign</t>
+          <t>B：EOS（Electronic Order System）</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>D：資料庫：PeopleSoft、Paypal</t>
+          <t>C：EDI（Electronic Data Interchange）</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>D：VAN（Value Added Network）</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>（D）：下列哪一間公司不適合利用O2O（Online to Offline）的方式來行銷產品？</t>
+          <t>( )：下列哪些屬於物聯網的技術標準？(複選題)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>A：新光三越</t>
+          <t>BD</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>B：家樂福</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>C：麥當勞</t>
+          <t>A：HTML5</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>D：PChome 24小時購物</t>
+          <t>C：IEEE Std 12207</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>D：oneM2M</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>（A）：下列有關商業自動化「一次輸入」流程的敘述哪一項正確？</t>
+          <t>( )：下列有關OO（Online to Offline）經營模式的敘述哪些正確？(複選題)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>A：條碼掃描→POS→EOS→VAN→EDI→物流中心管理系統</t>
+          <t>BC</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>B：條碼掃描→EOS→POS→VAN→EDI→物流中心管理系統</t>
+          <t>A：鼓勵消費者透過實體店面下單</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>C：條碼掃描→EDI→POS→EOS→VAN→物流中心管理系統</t>
+          <t>B：迎合兼顧實體通路與虛擬通路的電子商務趨勢</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>D：條碼掃描→VAN→EOS→POS→EDI→物流中心管理系統</t>
+          <t>C：讓消費者可以在線上下單，再前往實體店面取得產品與服務</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>D：利用宅配將貨物送到府，在家享受產品與服務</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>（B）：下列有關電子商務促成者的類型與公司之配對說明哪一項正確？</t>
+          <t>( )：下列有關電子商務促成者的類型與公司之配對說明哪一項錯誤？</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>A：客戶關係管理：Cisco</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>B：媒體串流方案：Real Networks、Microsoft</t>
+          <t>A：硬體：IBM、Sun</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>C：付費系統：Foundation</t>
+          <t>B：網路（路由器）：Cisco</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>D：資料庫：Exodus、PChome</t>
+          <t>C：安全服務：VeriSign</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>D：資料庫：PeopleSoft、Paypal</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>（C）：一種用來分發與匯集網頁內容的XML模式，稱為下列哪一項？</t>
+          <t>( )：下列哪一間公司不適合利用OO（Online to Offline）的方式來行銷產品？</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>A：Ajax</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>B：Mash up</t>
+          <t>A：新光三越</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>C：RSS</t>
+          <t>B：家樂福</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>D：Tag</t>
+          <t>C：麥當勞</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>D：PChome 24小時購物</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>（A）：下列敘述哪一項錯誤？</t>
+          <t>( )：下列有關商業自動化「一次輸入」流程的敘述哪一項正確？</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>A：網域名稱係指該網站的URL（Uniform Resource Locator），也就是該網站電子郵件的地址</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>B：網站內容管理（Content Management）可使你採用更有效率的方式，更新網站上的資料</t>
+          <t>A：條碼掃描→POS→EOS→VAN→EDI→物流中心管理系統</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>C：設計網站時要考慮消費者隱私性的問題，並詳述客戶個人資料的使用範圍</t>
+          <t>B：條碼掃描→EOS→POS→VAN→EDI→物流中心管理系統</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>D：點對點（P2P）電子商務指的是使用者可直接連接到其他人電腦進行交易或交換，讓人們彼此間可以直接分享、搜尋和交換資訊</t>
+          <t>C：條碼掃描→EDI→POS→EOS→VAN→物流中心管理系統</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>D：條碼掃描→VAN→EOS→POS→EDI→物流中心管理系統</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>（A）：以維基經濟學的觀點來看，短片分享網站Youtube屬於下列哪一項商業模式？</t>
+          <t>( )：下列有關電子商務促成者的類型與公司之配對說明哪一項正確？</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>A：消費者生產模式</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>B：創意仲介模式</t>
+          <t>A：客戶關係管理：Cisco</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>C：同儕協作模式</t>
+          <t>B：媒體串流方案：Real Networks、Microsoft</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>D：平台開放模式</t>
+          <t>C：付費系統：Foundation</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>D：資料庫：Exodus、PChome</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>（B）：消費者因購買或擁有某商品的人數增加，而減少擁有或購買該商品的意願，此種情形是指下列哪一項網路特性？</t>
+          <t>( )：一種用來分發與匯集網頁內容的XML模式，稱為下列哪一項？</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>A：天文觀察</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>B：網路輿論</t>
+          <t>A：Ajax</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>C：人體基因組解密</t>
+          <t>B：Mash up</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>D：社群網站照片與留言</t>
+          <t>C：RSS</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>D：Tag</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>（B）：下列哪一種狀況適合使用大數據的方式來分析資料？</t>
+          <t>( )：下列敘述哪一項錯誤？</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>A：大量化，可處理TB與PB以上資料</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>B：隨機化，隨機抽取資料以利於進行統計分析</t>
+          <t>A：網域名稱係指該網站的URL（Uniform Resource Locator），也就是該網站電子郵件的地址</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>C：多樣化，資料涵蓋影音、圖片、文字等類型</t>
+          <t>B：網站內容管理（Content Management）可使你採用更有效率的方式，更新網站上的資料</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>D：快速化，隨時產生大量顧客消費資料</t>
+          <t>C：設計網站時要考慮消費者隱私性的問題，並詳述客戶個人資料的使用範圍</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>D：點對點（P2P）電子商務指的是使用者可直接連接到其他人電腦進行交易或交換，讓人們彼此間可以直接分享、搜尋和交換資訊</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>（C）：社交網路（Social Network）的基本假設是基於哈佛大學心理學家Stanley Milgram在1960年代所提出的下列哪一項理論？</t>
+          <t>( )：以維基經濟學的觀點來看，短片分享網站Youtube屬於下列哪一項商業模式？</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>A：4度分隔理論（Four Degrees of Separation）</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>B：5度分隔理論（Five Degrees of Separation）</t>
+          <t>A：消費者生產模式</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>C：6度分隔理論（Six Degrees of Separation）</t>
+          <t>B：創意仲介模式</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>D：8度分隔理論（Eight Degrees of Separation）</t>
+          <t>C：同儕協作模式</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>D：平台開放模式</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>（C）：下列哪一項不屬於O2O（Online to Offline）的商業模式？</t>
+          <t>( )：消費者因購買或擁有某商品的人數增加，而減少擁有或購買該商品的意願，此種情形是指下列哪一項網路特性？</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>A：國外的業者在台灣提供銷售付費APP，被排除在本稅籍登記規範之外</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>B：國外電子商務業者，年銷售金額逾新台幣48萬元者，應申請稅籍登記</t>
+          <t>A：正向網路外部性</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>C：國外電子商務業者，年銷售金額逾新台幣36萬元者，應申請稅籍登記</t>
+          <t>B：負向網路外部性</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>D：未依規定申請稅籍登記，可處罰鍰</t>
+          <t>C：直接網路外部性</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>D：間接網路外部性</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>（C）：下列有關金融科技（FinTech）的敘述哪一項錯誤？</t>
+          <t>( )：下列哪些屬於大數據分析應用的領域？(複選題)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>A：金融科技對傳統金融服務業加速了創新</t>
+          <t>ABCD</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>B：我國對於金融科技相關事物由金融監督管理委員會進行管理</t>
+          <t>A：天文觀察</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>C：我國對於金融科技創新不推動專法，僅由現行法規進行管理</t>
+          <t>B：網路輿論</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>D：區塊鏈是金融科技的熱門議題之一</t>
+          <t>C：人體基因組解密</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>D：社群網站照片與留言</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>（C）：提供作業系統平台與應用系統開發平台，讓業者可以直接在這個平台上撰寫程式並對外提供服務，屬於下列哪一項雲端服務的類別？</t>
+          <t>( )：下列哪一種狀況適合使用大數據的方式來分析資料？</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>A：企業架設自有網站以便顧客選購，這是屬於C2C模式</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>B：企業直接在網路上與另一企業進行交易活動，這是屬於B2B模式</t>
+          <t>A：難以取得整個母體的資料時</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>C：顧客利用網路公司如雅虎、蕃薯藤提供的網站，直接在網路上與另一顧客進行交易，這是屬於B2C模式</t>
+          <t>B：資料來源混亂時</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>D：顧客個別利用網站傳輸與代理廠商溝通，提出產品議價，這是屬於C2B模式</t>
+          <t>C：需要確定變數的因果關係時</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>D：容易提出具體的研究假說時</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>（D）：提供硬體資源給客戶，使用者只需透過網路連線就可使用的雲端運算服務，屬於下列哪一項雲端服務的類別？</t>
+          <t>( )：下列哪些屬於大數據的特性？(複選題)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>A：SaaS（Software as a Service）</t>
+          <t>ACD</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>B：HaaS（Hardware as a Service）</t>
+          <t>A：大量化，可處理TB與PB以上資料</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>C：PaaS（Platform as a Service）</t>
+          <t>B：隨機化，隨機抽取資料以利於進行統計分析</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>D：IaaS（Infrastructure as a Service）</t>
+          <t>C：多樣化，資料涵蓋影音、圖片、文字等類型</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>D：快速化，隨時產生大量顧客消費資料</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>（A）：就目前已知統計資料，佔整個電子商務市場中交易金額最高的是下列哪一項？</t>
+          <t>( )：社交網路（Social Network）的基本假設是基於哈佛大學心理學家Stanley Milgram在年代所提出的下列哪一項理論？</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>A：B2B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>B：B2C</t>
+          <t>A：4度分隔理論（Four Degrees of Separation）</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>C：C2C</t>
+          <t>B：5度分隔理論（Five Degrees of Separation）</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>D：C2B</t>
+          <t>C：6度分隔理論（Six Degrees of Separation）</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>D：8度分隔理論（Eight Degrees of Separation）</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>（A）：若交易雙方都是企業體，是指下列哪一項電子商務交易模式？</t>
+          <t>( )：下列哪一項不屬於OO（Online to Offline）的商業模式？</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>A：B2B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>B：B2C</t>
+          <t>A：Uber手機叫車</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>C：C2C</t>
+          <t>B：Airbnb訂房</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>D：C2B</t>
+          <t>C：App Store與Google Play手機APP下載</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>D：EzTable訂餐廳</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>（C）：下列哪一項不屬於企業對企業（B2B）進行電子商務之利益？</t>
+          <t>( )：依據加值型及非加值型營業稅法與年月日財政部公布之基準，針對位於國外的電子商務業者，提出稅籍登記的相關規範。對此相關規範的敘述，下列哪些錯誤？(複選題)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>A：企業導入B2B電子商務後，可有效降低採購流程成本</t>
+          <t>AC</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>B：可經由此方式，接觸新客戶且獲取新的利益</t>
+          <t>A：國外的業者在台灣提供銷售付費APP，被排除在本稅籍登記規範之外</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>C：企業導入B2B電子商務後，需準備較多的存貨以滿足顧客需求</t>
+          <t>B：國外電子商務業者，年銷售金額逾新台幣48萬元者，應申請稅籍登記</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>D：透過B2B電子商務，可使採購流程自動化並提供企業相關採購指引</t>
+          <t>C：國外電子商務業者，年銷售金額逾新台幣36萬元者，應申請稅籍登記</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>D：未依規定申請稅籍登記，可處罰鍰</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>（D）：關於Portal入口網站，下列敘述哪一項錯誤？</t>
+          <t>( )：下列有關金融科技（FinTech）的敘述哪一項錯誤？</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>A：產品的個人化</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>B：產品銷售價格的減低</t>
+          <t>A：金融科技對傳統金融服務業加速了創新</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>C：產品搜尋成本的減低</t>
+          <t>B：我國對於金融科技相關事物由金融監督管理委員會進行管理</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>D：價格發現成本的減低</t>
+          <t>C：我國對於金融科技創新不推動專法，僅由現行法規進行管理</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>D：區塊鏈是金融科技的熱門議題之一</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>（B）：學者Kalakota認為電子商務發展過程可區分為下列四個階段：a.電子資金轉換、b.線上服務與知識分享、c.網路發展與全球資訊網的發明、d.電子資料交換與郵件服務，若依1970年代早期到1990年代之先後順序排序，下列哪一項正確？</t>
+          <t>( )：提供作業系統平台與應用系統開發平台，讓業者可以直接在這個平台上撰寫程式並對外提供服務，屬於下列哪一項雲端服務的類別？</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>A：abcd</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>B：adbc</t>
+          <t>A：SaaS（Software as a Service）</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>C：abdc</t>
+          <t>B：HaaS（Hardware as a Service）</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>D：acdb</t>
+          <t>C：PaaS（Platform as a Service）</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>D：IaaS（Infrastructure as a Service）</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>（A）：透過網路、線上社群、行動裝置等方式，將潛在消費者帶到實體商店是指下列哪一類商業模式？</t>
+          <t>( )：下列哪些為區塊鏈的構成要素？(複選題)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>A：Online to Offline</t>
+          <t>ACD</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>B：Business to Business</t>
+          <t>A：安全的共享帳本系統</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>C：Offline to Online</t>
+          <t>B：採用人工作業的合約系統</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>D：Customer to Business</t>
+          <t>C：打造交易共識</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>D：保護交易者的隱私</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>（B）：以維基經濟學的觀點來看，營利或非營利組織開放分享其資訊來協助大眾學習與創造更多的知識，屬於下列哪一項商業模式？</t>
+          <t>( )：下列有關電子交易應用服務層面的敘述哪些錯誤？(複選題)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>A：平台開放模式</t>
+          <t>AC</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>B：科學知識分享模式</t>
+          <t>A：企業架設自有網站以便顧客選購，這是屬於C2C模式</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>C：同儕協作模式</t>
+          <t>B：企業直接在網路上與另一企業進行交易活動，這是屬於B2B模式</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>D：創意仲介模式</t>
+          <t>C：顧客利用網路公司如雅虎、蕃薯藤提供的網站，直接在網路上與另一顧客進行交易，這是屬於B2C模式</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>D：顧客個別利用網站傳輸與代理廠商溝通，提出產品議價，這是屬於C2B模式</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>（B）：以維基經濟學的觀點來看，設立一個對外部社群大眾完全公開的網站，尋求產品創新或問題解決的建議需求，屬於下列哪一項商業模式？</t>
+          <t>( )：提供硬體資源給客戶，使用者只需透過網路連線就可使用的雲端運算服務，屬於下列哪一項雲端服務的類別？</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>A：同儕協作模式</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>B：創意仲介模式</t>
+          <t>A：SaaS（Software as a Service）</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>C：科學知識分享模式</t>
+          <t>B：HaaS（Hardware as a Service）</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>D：平台開放模式</t>
+          <t>C：PaaS（Platform as a Service）</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>D：IaaS（Infrastructure as a Service）</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>（B）：下列有關電子商務應用類型賣方型、買方型及線上交易市集的敘述哪一項錯誤？</t>
+          <t>( )：就目前已知統計資料，佔整個電子商務市場中交易金額最高的是下列哪一項？</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>A：賣方型線上服務，是由供應商所建立的產品線上型錄服務，提供採購者自供應商網站直接取得產品資訊、報價等服務</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>B：買方型線上服務，是由供應商所建立的產品線上型錄服務，提供採購者自供應商網站直接取得產品資訊、報價等服務</t>
+          <t>A：B2B</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>C：買方型線上服務，是由買方主導的採購型網站，整合各類供應商之電子型錄及企業資源規劃系統，如：台塑集團委託關貿網站建置的採購網站</t>
+          <t>B：B2C</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>D：線上交易市集，是藉由開放的交易平台，提供各式交易資訊共享、產品與價格搜尋等應用</t>
+          <t>C：C2C</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>D：C2B</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>（D）：根據Kalakota及Whinston所定義的電子商務架構，兩大重要的支柱為下列哪一項？</t>
+          <t>( )：若交易雙方都是企業體，是指下列哪一項電子商務交易模式？</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>A：公共政策、商業服務基礎架構</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>B：網路基礎架構與文件、安全性及網路協定技術標準</t>
+          <t>A：B2B</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>C：商業服務基礎架構、網路基礎架構</t>
+          <t>B：B2C</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>D：公共政策、技術標準</t>
+          <t>C：C2C</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>D：C2B</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>（B）：依據Morgan Stanley所提出之市集交易的四種分類模式，請問「由具有獨佔優勢或專賣供應廠商所建立的交易市集」，屬於下列哪一項市集交易模式？</t>
+          <t>( )：下列哪一項不屬於企業對企業（BB）進行電子商務之利益？</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>A：買方集中管理電子市集（Buyer-Managed/Buyer-Side）</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>B：供應方集中管理電子市集（Supplier-Managed/Sell-Side）</t>
+          <t>A：企業導入B2B電子商務後，可有效降低採購流程成本</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>C：市場集聚電子市集（Distributor/Market Makers）</t>
+          <t>B：可經由此方式，接觸新客戶且獲取新的利益</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>D：內容匯集電子市集（Content Aggregators）</t>
+          <t>C：企業導入B2B電子商務後，需準備較多的存貨以滿足顧客需求</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>D：透過B2B電子商務，可使採購流程自動化並提供企業相關採購指引</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>（B）：下列有關物聯網的敘述哪一項錯誤？</t>
+          <t>( )：關於Portal入口網站，下列敘述哪一項錯誤？</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>A：比特幣</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>B：區塊鏈</t>
+          <t>A：Portal入口網站之經營業者應因地制宜，建立本土化的入口網站，以符合當地網友的需求</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>C：行動支付</t>
+          <t>B：Portal入口網站要在電子商務有所發展，需要取得實體企業在物流、配送及客戶服務等方面的經驗</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>D：金融監理沙盒</t>
+          <t>C：Portal入口網站的主要功能之一是在集結大量的上網人口，並建立其對該網站之忠誠度</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>D：Portal入口網站不具有向外連結、搜尋服務、電子商務與電子郵件等特性</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>（C）：關於EDI電子資料交換系統之架構，由下到上的層次，下列哪一項正確？</t>
+          <t>( )：以消費者的角度來看，成功的電子商務價值主張應包括下列哪些？(複選題)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>A：EDI標準層→EDI傳輸層→EDI語意層→實體層</t>
+          <t>ABCD</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>B：EDI傳輸層→EDI標準層→實體層→EDI語意層</t>
+          <t>A：產品的個人化</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>C：實體層→EDI傳輸層→EDI標準層→EDI語意層</t>
+          <t>B：產品銷售價格的減低</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>D：EDI語意層→EDI傳輸層→EDI標準層→實體層</t>
+          <t>C：產品搜尋成本的減低</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>D：價格發現成本的減低</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>（C）：消費者直接與消費者交易是指下列哪一模式的電子商務交易？</t>
+          <t>( )：學者Kalakota認為電子商務發展過程可區分為下列四個階段：a.電子資金轉換、b.線上服務與知識分享、c.網路發展與全球資訊網的發明、d.電子資料交換與郵件服務，若依年代早期到年代之先後順序排序，下列哪一項正確？</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>A：B2B</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>B：B2C</t>
+          <t>A：abcd</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>C：C2C</t>
+          <t>B：adbc</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>D：C2B</t>
+          <t>C：abdc</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>D：acdb</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>（A）：下列哪一項不是馬雲所提的新零售概念？</t>
+          <t>( )：透過網路、線上社群、行動裝置等方式，將潛在消費者帶到實體商店是指下列哪一類商業模式？</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>A：線上與線下企業各自獨立發展</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>B：線上企業走入線下</t>
+          <t>A：Online to Offline</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>C：結合電商、店鋪、物流</t>
+          <t>B：Business to Business</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>D：線下企業走入網路化發展</t>
+          <t>C：Offline to Online</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>D：Customer to Business</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>（D）：下列有關區塊鏈的敘述哪一項錯誤？</t>
+          <t>( )：以維基經濟學的觀點來看，營利或非營利組織開放分享其資訊來協助大眾學習與創造更多的知識，屬於下列哪一項商業模式？</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>A：源自於比特幣</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>B：是去中心化的分散式系統</t>
+          <t>A：平台開放模式</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>C：採用橢圓曲線數位簽章演算法</t>
+          <t>B：科學知識分享模式</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>D：採用序號來確保區塊序列</t>
+          <t>C：同儕協作模式</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>D：創意仲介模式</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>（A）：關於「應用資訊科技，使整個商業流程從製造商到零售據點的過程電子化」之敘述，指的是下列哪一項？</t>
+          <t>( )：以維基經濟學的觀點來看，設立一個對外部社群大眾完全公開的網站，尋求產品創新或問題解決的建議需求，屬於下列哪一項商業模式？</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>A：商業自動化</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>B：行銷自動化</t>
+          <t>A：同儕協作模式</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>C：服務自動化</t>
+          <t>B：創意仲介模式</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>D：銷售自動化</t>
+          <t>C：科學知識分享模式</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>D：平台開放模式</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>（A）：所謂的接單後生產（Build to Order，BTO），是屬於下列哪一項？</t>
+          <t>( )：下列有關電子商務應用類型賣方型、買方型及線上交易市集的敘述哪一項錯誤？</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>A：拉式生產</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>B：推式生產</t>
+          <t>A：賣方型線上服務，是由供應商所建立的產品線上型錄服務，提供採購者自供應商網站直接取得產品資訊、報價等服務</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>C：升式生產</t>
+          <t>B：買方型線上服務，是由供應商所建立的產品線上型錄服務，提供採購者自供應商網站直接取得產品資訊、報價等服務</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>D：降式生產</t>
+          <t>C：買方型線上服務，是由買方主導的採購型網站，整合各類供應商之電子型錄及企業資源規劃系統，如：台塑集團委託關貿網站建置的採購網站</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>D：線上交易市集，是藉由開放的交易平台，提供各式交易資訊共享、產品與價格搜尋等應用</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>（A）：提供各式各樣的軟體如Google的Google Apps供消費者下載使用，屬於下列哪一項雲端服務的類別？</t>
+          <t>( )：根據Kalakota及Whinston所定義的電子商務架構，兩大重要的支柱為下列哪一項？</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>A：組織扁平化</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>B：組織虛擬化</t>
+          <t>A：公共政策、商業服務基礎架構</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>C：組織豐富化</t>
+          <t>B：網路基礎架構與文件、安全性及網路協定技術標準</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>D：組織傳統化</t>
+          <t>C：商業服務基礎架構、網路基礎架構</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>D：公共政策、技術標準</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>（B）：網站以提供內容或服務給使用者並收取費用的收益模式，屬於下列哪一類獲利模式？</t>
+          <t>( )：依據Morgan Stanley所提出之市集交易的四種分類模式，請問「由具有獨佔優勢或專賣供應廠商所建立的交易市集」，屬於下列哪一項市集交易模式？</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>A：訂閱收益模式</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>B：合作收益模式</t>
+          <t>A：買方集中管理電子市集（Buyer-Managed/Buyer-Side）</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>C：手續費收益模式</t>
+          <t>B：供應方集中管理電子市集（Supplier-Managed/Sell-Side）</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>D：廣告收益模式</t>
+          <t>C：市場集聚電子市集（Distributor/Market Makers）</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>D：內容匯集電子市集（Content Aggregators）</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>（B）：由賣方彼此競價，出價最低者即贏得與買方的商務交易，屬於下列哪一類商務交易模式？</t>
+          <t>( )：下列有關物聯網的敘述哪一項錯誤？</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>A：拍賣式交易</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>B：逆拍賣式交易</t>
+          <t>A：英文為Internet of Things，簡稱IoT</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>C：討價還價的交易</t>
+          <t>B：主要依賴人類來提供資訊</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>D：需求整合式的交易</t>
+          <t>C：可應用電子標籤將真實物體連結上網</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>D：相關應用包含智慧家庭與智慧城市</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>（D）：雲端服務的「雲」是指下列哪一項？</t>
+          <t>( )：下列哪些屬於物聯網的應用？(複選題)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>A：路由器</t>
+          <t>ABD</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>B：個人電腦</t>
+          <t>A：智慧城市</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>C：手持裝置</t>
+          <t>B：智慧家庭</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>D：網路</t>
+          <t>C：智慧財產權</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>D：智慧手錶</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>（B）：下列哪一項不屬於雲端服務的類別？</t>
+          <t>( )：下列有關物聯網時代效能提升的說法哪些正確？(複選題)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>A：SaaS（Software as a Service）</t>
+          <t>ACD</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>B：HaaS（Hardware as a Service）</t>
+          <t>A：在貨品運送途中易於追蹤貨品，使得物流服務品質提升</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>C：PaaS（Platform as a Service）</t>
+          <t>B：改善組織氣氛，提升團隊效能</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>D：IaaS（Infrastructure as a Service）</t>
+          <t>C：比起目前的一維條碼方式，藉由RFID可讓實體賣場的結帳更便捷</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>D：可對每個產品進行監控，改善供應鏈品質</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>（C）：將傳統拍賣移轉到電子作業方式上進行，其標價機制就本質上來說是相同的，此種較節省成本、提高效率之模式稱為下列哪一項？</t>
+          <t>( )：消費者可使用智慧型手機進行下列哪些行動商務活動？(複選題)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>A：電子佈告欄</t>
+          <t>ABCD</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>B：網路合購</t>
+          <t>A：股票交易</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>C：網路拍賣</t>
+          <t>B：商品比價</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>D：E-mail行銷</t>
+          <t>C：銀行業務</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>D：旅遊商品買賣</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>（D）：下列有關大數據與傳統商業分析比較的敘述哪一項錯誤？</t>
+          <t>( )：相對於紙張貨幣與傳統銀行業務，下列哪些屬於金融科技提供給民眾的創新服務？(複選題)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>A：透過電子商務平台下單</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>B：客戶與廠商分屬不同關境</t>
+          <t>A：比特幣</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>C：一律免稅</t>
+          <t>B：區塊鏈</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>D：透過電子商務平台進行支付</t>
+          <t>C：行動支付</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>D：金融監理沙盒</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>（C）：下列哪一項不屬於電子商務核心四大流程（Flow）中之活動？</t>
+          <t>( )：關於EDI電子資料交換系統之架構，由下到上的層次，下列哪一項正確？</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>A：EDI標準層→EDI傳輸層→EDI語意層→實體層</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>B：EDI傳輸層→EDI標準層→實體層→EDI語意層</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>C：實體層→EDI傳輸層→EDI標準層→EDI語意層</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>D：EDI語意層→EDI傳輸層→EDI標準層→實體層</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>( )：消費者直接與消費者交易是指下列哪一模式的電子商務交易？</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>A：B2B</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>B：B2C</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>C：C2C</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>D：C2B</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>( )：下列哪一項不是馬雲所提的新零售概念？</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>A：線上與線下企業各自獨立發展</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>B：線上企業走入線下</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>C：結合電商、店鋪、物流</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>D：線下企業走入網路化發展</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>( )：下列有關區塊鏈的敘述哪一項錯誤？</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>A：源自於比特幣</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>B：是去中心化的分散式系統</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>C：採用橢圓曲線數位簽章演算法</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>D：採用序號來確保區塊序列</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>( )：關於「應用資訊科技，使整個商業流程從製造商到零售據點的過程電子化」之敘述，指的是下列哪一項？</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>A：商業自動化</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>B：行銷自動化</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>C：服務自動化</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>D：銷售自動化</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>( )：所謂的接單後生產（Build to Order，BTO），是屬於下列哪一項？</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>A：拉式生產</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>B：推式生產</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>C：升式生產</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>D：降式生產</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>( )：提供各式各樣的軟體如Google的Google Apps供消費者下載使用，屬於下列哪一項雲端服務的類別？</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>A：SaaS（Software as a Service）</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>B：HaaS（Hardware as a Service）</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>C：PaaS（Platform as a Service）</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>D：IaaS（Infrastructure as a Service）</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>( )：下列哪些公司從創立開始就打著共享經濟的名號而快速成長？(複選題)</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>BD</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>A：Amazon</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>B：Airbnb</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>C：Cisco</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>D：Uber</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>( )：企業一旦發展電子商務後，可能會使組織形成下列哪些變化？(複選題)</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>A：組織扁平化</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>B：組織虛擬化</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>C：組織豐富化</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>D：組織傳統化</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>( )：網站以提供內容或服務給使用者並收取費用的收益模式，屬於下列哪一類獲利模式？</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>A：廣告收益模式</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>B：訂閱收益模式</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>C：手續費收益模式</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>D：合作收益模式</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>( )：下列哪些為電子商務的收益模式？(複選題)</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>ABCD</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>A：訂閱收益模式</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>B：合作收益模式</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>C：手續費收益模式</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>D：廣告收益模式</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>( )：由賣方彼此競價，出價最低者即贏得與買方的商務交易，屬於下列哪一類商務交易模式？</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>A：拍賣式交易</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>B：逆拍賣式交易</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>C：討價還價的交易</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>D：需求整合式的交易</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>( )：雲端服務的「雲」是指下列哪一項？</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>A：路由器</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>B：個人電腦</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>C：手持裝置</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>D：網路</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>( )：下列哪一項不屬於雲端服務的類別？</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>A：SaaS（Software as a Service）</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>B：HaaS（Hardware as a Service）</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>C：PaaS（Platform as a Service）</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>D：IaaS（Infrastructure as a Service）</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>( )：將傳統拍賣移轉到電子作業方式上進行，其標價機制就本質上來說是相同的，此種較節省成本、提高效率之模式稱為下列哪一項？</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>A：電子佈告欄</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>B：網路合購</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>C：網路拍賣</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>D：E-mail行銷</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>( )：下列有關大數據與傳統商業分析比較的敘述哪一項錯誤？</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>A：傳統商業分析多採抽樣分析，大數據分析是針對原始大量資料直接分析</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>B：傳統商業分析是先制定模型，大數據分析則是探索資料與發現新模型</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>C：傳統商業分析多針對結構化的資料，大數據分析則涵蓋非結構化資料</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>D：傳統商業分析省時，而大數據分析在基礎建設建構完整後，費力耗時</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>( )：下列有關跨境電商特性的敘述哪些正確？(複選題)</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>ABD</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>A：透過電子商務平台下單</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>B：客戶與廠商分屬不同關境</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>C：一律免稅</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>D：透過電子商務平台進行支付</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>( )：下列哪一項不屬於電子商務核心四大流程（Flow）中之活動？</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
           <t>A：資訊流</t>
         </is>
       </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>B：金流</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>C：人力流</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>D：物流</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G136"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>( )：Python的發明與那一個人有關。</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>A：Guido van Rossum</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>B：Ross Ihaka</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>C：Tim Cook</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>D：Steve Job</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>( )：Python無法在下列那一個作業環境執行。</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>A：Windows</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>B：Mac OS</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>C：Linux</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>D：以上作業系統皆可以執行Python</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>( )：下列那一個符號不可當作Python的註解功能。</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>A：@</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>B：#</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>C：’</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>D：”</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>( )：下列那一個是合法的變數名稱。</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>A：return</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>B：_5x</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>C：9x</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>D：x$d</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>( )：下列那一個不是合法的變數名稱。</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>A：總計</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>B：_k2</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>C：k,3</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>D：AAA</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>( )：計算下列的x值。</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>.\imgs\20190311Python教學考古選擇題img6.png</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>A：10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>B：100</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>C：90</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>D：1</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>( )：計算下列的x值。</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>.\imgs\20190311Python教學考古選擇題img7.png</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>A：10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>B：100</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>C：2</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>D：1</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>( )：計算下列的x值。</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>.\imgs\20190311Python教學考古選擇題img8.png</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>A：87</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>B：2895</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>C：46626</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>D：1</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>( )：如果有一個整數變數x，當執行type(x)後可以得到什麼傳回值？</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>.\imgs\20190311Python教學考古選擇題img8.png</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>A：int</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>B：float</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>C：str</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>D：bool</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>( )：如果有一個浮點數變數x，當執行type(x)後可以得到什麼傳回值？</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>A：int</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>B：float</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>C：str</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>D：array</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>( )：如果有一個布林值變數x，當執行type(x)後可以得到什麼傳回值？</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>A：int</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>B：float</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>C：str</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>D：bool</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>( )：如果有一個字串變數x，當執行type(x)後可以得到什麼傳回值？</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>A：int</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>B：float</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>C：str</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>D：array</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>( )：xAA的進位值是多少？</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>A：99</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>B：100</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>C：170</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>D：200</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>( )：b的進位值是多少？</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>A：3</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>B：5</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>C：7</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>D：9</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>( )：o的進位值是多少？</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>A：8</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>B：10</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>C：12</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>D：3</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>( )：下列那一個逸出字元(Escape Character)可以讓下次輸出時跳到下一行輸出。</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>A：\n</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>B：\f</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>C：\t</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>D：\b</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>( )：下列那一個逸出字元(Escape Character)可以讓下次輸出時跳到下一頁輸出。</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>A：\n</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>B：\f</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>C：\t</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>D：\b</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>( )：print( )函數的那一個參數可以設定各筆資料間的分隔字元。</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>A：value</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>B：sep</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>C：end</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>D：file</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>( )：print( )函數的那一個參數可以設定下次print( )資料輸出時不要換行輸出。</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>A：value</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>B：sep</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>C：end</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>D：file</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>( )：print( )函數的那一個參數可以設定輸出至一般檔案。</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>A：value</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>B：sep</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>C：end</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>D：file</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>( )：使用open( )開啟檔案時，mode參數是下列那一個，可以創造所開啟檔案只能讀取。</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>A：“r”</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>B：”w”</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>C：”a”</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>D：”x”</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>( )：使用open( )開啟檔案時，mode參數是下列那一個，可開啟檔案供寫入，如果原先檔案有內容將被覆蓋。</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>A：“r”</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>B：”w”</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>C：”a”</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>D：”x”</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>( )：使用open( )開啟檔案時，mode參數是下列那一個，可開啟檔案供寫入，如果原先檔案有內容，新寫入資料將附加在後面。</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>A：“r”</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>B：”w”</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>C：”a”</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>D：”x”</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>( )：使用open( )開啟檔案時，mode參數是下列那一個，可開啟一個新的檔案供寫入，如果所開啟的檔案已經存在會產生錯誤。</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>A：“r”</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>B：”w”</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>C：”a”</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>D：”x”</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>( )：可用於格式化整數輸出。</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>A：%d</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>B：%f</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>C：%s</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>D：%h</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>( )：可用於格式化浮點數輸出。</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>A：%d</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>B：%f</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>C：%s</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>D：%h</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>( )：可用於格式化串輸出。</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>A：%d</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>B：%f</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>C：%s</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>D：%h</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>( )：下列那一個函數可以列出所有Python所提供的內建函數。</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>A：help( )</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>B：print( )</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>C：input( )</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>D：dir( )</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>( )：如果設計一個程式讀取輸入數字，如果數字大於或等於輸出大，如果數字小於輸出小，下列那一個敘述最適合設計這個程式。</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>A：if</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>B：if …else</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>C：if … elif … else</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>D：巢狀if</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>( )：如果設計一個程式讀取輸入個蘋果的重量，如果大於或等於.公斤輸出”A級貨”，如果小於.公斤但是大於或等於.公斤輸出”B級貨”，其它則輸出”C級貨”，下列那一個敘述最適合設計這個程式。</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>A：if</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>B：if …else</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>C：if … elif … else</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>D：巢狀if</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>( )：下列那一個是不等於關係運算子。</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>A：&gt;=</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>B：&lt;&gt;</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>C：&lt;=</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>D：!=</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>( )：下列那一個函數可以列出特定函數的使用說明。</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>A：help( )</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>B：print( )</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>C：input( )</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>D：dir( )</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>( )：串列(list)使用時，如果索引值是多少，代表這是串列的最後一個元素。</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>A：-1</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>B：0</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>C：1</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>D：max</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>( )：有一個Python程式如下：!n可以得到下列結果。</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>.\imgs\20190311Python教學考古選擇題img34.png</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>A：程式錯誤</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>.\imgs\20190311Python教學考古選擇題img34B.png</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>.\imgs\20190311Python教學考古選擇題img34C.png</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>.\imgs\20190311Python教學考古選擇題img34D.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>( )：有一個Python程式如下：!n可以得到下列結果。</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>.\imgs\20190311Python教學考古選擇題img35.png</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>.\imgs\20190311Python教學考古選擇題img35A.png</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>.\imgs\20190311Python教學考古選擇題img35B.png</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>.\imgs\20190311Python教學考古選擇題img35C.png</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>.\imgs\20190311Python教學考古選擇題img35D.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>( )：有一個Python程式如下：!n可以得到下列結果。</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>.\imgs\20190311Python教學考古選擇題img36.png</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>A：0</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>B：1</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>C：2</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>D：3</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>( )：有一個Python程式如下：!n可以得到下列結果。</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>.\imgs\20190311Python教學考古選擇題img37.png</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>A：BIG</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>B：Medium</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>C：Small</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>D：MEDIUM</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>( )：有一個Python程式如下：!n可以得到下列結果。</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>.\imgs\20190311Python教學考古選擇題img38.png</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>.\imgs\20190311Python教學考古選擇題img38A.png</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>.\imgs\20190311Python教學考古選擇題img38B.png</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>.\imgs\20190311Python教學考古選擇題img38C.png</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>.\imgs\20190311Python教學考古選擇題img38D.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>( )：有一個Python程式如下：!n可以得到下列列印結果。</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>.\imgs\20190311Python教學考古選擇題img39.png</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>.\imgs\20190311Python教學考古選擇題img39A.png</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>.\imgs\20190311Python教學考古選擇題img39B.png</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>.\imgs\20190311Python教學考古選擇題img39C.png</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>.\imgs\20190311Python教學考古選擇題img39D.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>( )：有一個Python程式如下：!n可以得到下列結果。</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>.\imgs\20190311Python教學考古選擇題img40.png</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>A：big</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>B：small</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>C：medium</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>D：large</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>( )：有一個Python程式如下：!n可以得到下列結果。</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>.\imgs\20190311Python教學考古選擇題img41.png</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>.\imgs\20190311Python教學考古選擇題img41A.png</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>.\imgs\20190311Python教學考古選擇題img41B.png</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>.\imgs\20190311Python教學考古選擇題img41C.png</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>.\imgs\20190311Python教學考古選擇題img41D.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>( )：有一個Python程式如下：!n可以得到下列結果。</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>.\imgs\20190311Python教學考古選擇題img42.png</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>.\imgs\20190311Python教學考古選擇題img42A.png</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>.\imgs\20190311Python教學考古選擇題img42B.png</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>.\imgs\20190311Python教學考古選擇題img42C.png</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>.\imgs\20190311Python教學考古選擇題img42D.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>( )：有一個Python程式如下：!n可以得到下列結果。</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>.\imgs\20190311Python教學考古選擇題img43.png</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>.\imgs\20190311Python教學考古選擇題img43A.png</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>.\imgs\20190311Python教學考古選擇題img43B.png</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>.\imgs\20190311Python教學考古選擇題img43C.png</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>.\imgs\20190311Python教學考古選擇題img43D.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>( )：有一個Python程式如下：!n可以得到下列結果。</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>.\imgs\20190311Python教學考古選擇題img44.png</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>.\imgs\20190311Python教學考古選擇題img44A.png</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>.\imgs\20190311Python教學考古選擇題img44B.png</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>.\imgs\20190311Python教學考古選擇題img44C.png</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>.\imgs\20190311Python教學考古選擇題img44D.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>( )：有一個Python程式如下：!n可以得到下列結果。</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>.\imgs\20190311Python教學考古選擇題img45.png</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>.\imgs\20190311Python教學考古選擇題img45A.png</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>.\imgs\20190311Python教學考古選擇題img45B.png</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>.\imgs\20190311Python教學考古選擇題img45C.png</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>.\imgs\20190311Python教學考古選擇題img45D.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>( )：有一個Python程式如下：!n可以得到下列結果。</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>.\imgs\20190311Python教學考古選擇題img46.png</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>B：金流</t>
+          <t>.\imgs\20190311Python教學考古選擇題img46A.png</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>C：人力流</t>
+          <t>.\imgs\20190311Python教學考古選擇題img46B.png</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>D：物流</t>
+          <t>.\imgs\20190311Python教學考古選擇題img46C.png</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>.\imgs\20190311Python教學考古選擇題img46D.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>( )：有一個Python程式如下：!n可以得到下列結果。</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>.\imgs\20190311Python教學考古選擇題img47.png</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>.\imgs\20190311Python教學考古選擇題img47A.png</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>.\imgs\20190311Python教學考古選擇題img47B.png</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>.\imgs\20190311Python教學考古選擇題img47C.png</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>.\imgs\20190311Python教學考古選擇題img47D.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>( )：下列是一個無限迴圈，如果要中斷此無限迴圈，可以使用下列那一個按鍵。</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>.\imgs\20190311Python教學考古選擇題img48.png</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>A：Ctrl + a</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>B：Esc</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>C：Enter</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>D：Ctrl + c</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>( )：請列出下列程式的執行結果。</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>.\imgs\20190311Python教學考古選擇題img49.png</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>.\imgs\20190311Python教學考古選擇題img49A.png</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>.\imgs\20190311Python教學考古選擇題img49B.png</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>.\imgs\20190311Python教學考古選擇題img49C.png</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>.\imgs\20190311Python教學考古選擇題img49D.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>( )：請列出下列程式的執行結果。</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>.\imgs\20190311Python教學考古選擇題img50.png</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>.\imgs\20190311Python教學考古選擇題img50A.png</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>.\imgs\20190311Python教學考古選擇題img50B.png</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>.\imgs\20190311Python教學考古選擇題img50C.png</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>.\imgs\20190311Python教學考古選擇題img50D.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>( )：下列程式執行結果total值是多少。</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>.\imgs\20190311Python教學考古選擇題img51.png</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>A：0</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>B：10</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>C：50</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>D：55</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>( )：下列程式執行結果total值是多少。</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>.\imgs\20190311Python教學考古選擇題img52.png</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>A：0</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>B：10</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>C：50</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>D：55</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>( )：下列程式執行結果n值是多少。</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>.\imgs\20190311Python教學考古選擇題img53.png</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>A：4</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>B：5</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>C：6</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>D：7</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>( )：下列程式執行結果total值是多少。</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>.\imgs\20190311Python教學考古選擇題img54.png</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>A：0</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>B：1</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>C：45</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>D：55</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>( )：下列那一個方法可用在元組。</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>.\imgs\20190311Python教學考古選擇題img54.png</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>A：pop( )</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>B：insert( )</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>C：len( )</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>D：append( )</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>( )：如果想將串列改為元組，可以使用那一個方法。</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>A：list</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>B：tuple</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>C：append</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>D：dict</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>( )：如果想將元組改為串列，可以使用那一個方法。</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>A：list</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>B：tuple</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>C：append</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>D：dict</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>( )：下列那一個方法不可用在元組。</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>A：max( )</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>B：min( )</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>C：len( )</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>D：append( )</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>( )：有一個字典內容如下，它的元素數量有幾個。</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>.\imgs\20190311Python教學考古選擇題img59.png</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>A：1</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>B：2</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>C：3</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>D：6</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>( )：下列persons是一個字典，有一個for迴圈如下：!n上述info2可以得到什麼？</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>.\imgs\20190311Python教學考古選擇題img60.png</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>A：鍵</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>B：值</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>C：鍵-值</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>D：字典</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>( )：下列persons是一個字典，有一個for迴圈如下：!n上述info1可以得到什麼？</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>.\imgs\20190311Python教學考古選擇題img61.png</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>A：鍵</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>B：值</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>C：鍵-值</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>D：字典</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>( )：下列persons是一個字典，有一個for迴圈如下：!n上述info可以得到什麼？</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>.\imgs\20190311Python教學考古選擇題img62.png</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>A：鍵</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>B：值</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>C：鍵-值</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>D：字典</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>( )：下列persons是一個字典，有一個for迴圈如下：!n上述info可以得到什麼？</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>.\imgs\20190311Python教學考古選擇題img63.png</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>A：鍵</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>B：值</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>C：鍵-值</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>D：字典</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>( )：下列persons是一個字典，有一個for迴圈如下：!n上述info可以得到什麼？</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>.\imgs\20190311Python教學考古選擇題img64.png</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>A：鍵</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>B：值</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>C：鍵-值</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>D：字典</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>( )：有一個程式如下：!n上述程式最後enemys字典內有多少個鍵-值元素。</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>.\imgs\20190311Python教學考古選擇題img65.png</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>A：0</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>B：3</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>C：47</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>D：50</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>( )：有一個Python資料定義如下：!n上述資料定義為何？</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>.\imgs\20190311Python教學考古選擇題img66.png</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>A：串列</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>B：字典內含字典</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>C：字典內含串列</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>D：字典串列</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>( )：有一個Python資料定義如下：!n上述資料定義為何？</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>.\imgs\20190311Python教學考古選擇題img67.png</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>A：串列</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>B：字典內含字典</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>C：字典內含串列</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>D：字典串列</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>( )：有一程式如下：!n上述執行結果為何？</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>.\imgs\20190311Python教學考古選擇題img68.png</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>A：2</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>B：3</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>C：4</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>D：8</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>( )：下列那一個符號可以建立集合。</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>.\imgs\20190311Python教學考古選擇題img68.png</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>A：( )</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>B：[ ]</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>C：{ }</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>D：”“</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>( )：下列那一種資料型態不可是集合元素。</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>A：字典</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>B：元組</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>C：整數</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>D：字串</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>( )：下列那一種資料型態可以是集合元素。</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>A：字典</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>B：元組</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>C：串列</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>D：集合</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>( )：集合A是曾經到美國旅遊的人，集合B是曾經到英國旅遊的人，如果現在想要得到曾經到過個國家旅遊的人，可以使用那一種集合功能。</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>A：交集</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>B：聯集</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>C：差集</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>D：對稱差集</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>( )：集合A是曾經到美國旅遊的人，集合B是曾經到英國旅遊的人，如果現在想要得到曾經到過美國或英國旅遊的人，可以使用那一種集合功能。</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>A：交集</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>B：聯集</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>C：差集</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>D：對稱差集</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>( )：集合A是曾經到美國旅遊的人，集合B是曾經到英國旅遊的人，如果現在想要得到曾經到英國家但是不曾到過美國旅遊的人，可以使用那一種集合功能。</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>A：A &amp; B</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>B：A | B</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>C：A - B</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>D：B - A</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>( )：集合A是曾經到美國旅遊的人，集合B是曾經到英國旅遊的人，如果現在想要得到曾經到美國家但是不曾到過英國旅遊的人，可以使用那一種集合功能。</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>A：A &amp; B</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>B：A | B</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>C：A - B</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>D：B - A</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>( )：有一個集合A和B運算圖如下：!n如果想在集合運算中取得上述黃色區塊，須使用那一種運算。</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>.\imgs\20190311Python教學考古選擇題img76.png</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>A：A &amp; B</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>B：A | B</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>C：A - B</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>.\imgs\20190311Python教學考古選擇題img76D.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>( )：集合A的內容是{, , }，集合B的內容是{, , }，當執行下列集合運算後，請列出集合A的內容。!nA.difference_update(B)</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>.\imgs\20190311Python教學考古選擇題img76.png</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>A：{1, 2, 3}</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>B：{5, 4, 3}</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>C：{1, 2}</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>D：{3}</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>( )：有一個集合A的內容是{, , , }，執行下列指令後，串列B的結果為何？!nB = sorted(A)</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>A：{1, 3, 5, 8}</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>B：{8, 5, 3, 1}</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>C：{5, 3, 8, 1}</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>D：{1, 3, 5, 8}</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>( )：設計函數時若沒有return指令，表示將傳回什麼？</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>A：沒有傳回任何資料</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>B：None</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>C：函數位址</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>D：Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>( )：某一個函數定義如下：!n呼叫上述函數時，可以傳遞多少個參數。</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>.\imgs\20190311Python教學考古選擇題img80.png</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>A：0</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>B：1</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>C：2</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>D：0到多個</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>( )：下列那一項不是遞迴函數的特色。</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>.\imgs\20190311Python教學考古選擇題img80.png</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>A：函數可以呼叫自己</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>B：每次函數呼叫可以使範圍越來越少</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>C：常用break離開函數</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>D：必須要有終止條件</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>( )：匿名函數使用下列關鍵字定義。</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>A：def</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>B：anonymous</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>C：lambda</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>D：secret</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>( )：下列那一個函數會將匿名函數當作參數使用。</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>A：filter( )</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>B：print( )</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>C：list( )</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>D：tuple( )</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>( )：filter( )函數傳回的是那一種物件。</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>A：list</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>B：dict</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>C：tuple</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>D：filter object</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>( )：下列那一個參數可以接受任意數量的關鍵字參數。</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>A：car</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>B：cars</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>C：*cars</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>D：**cars</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>( )：使用Python時，自建的資料型態。</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>A：集合(set)</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>B：串列(list)</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>C：字典(dict)</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>D：類別(class)</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>( )：類別初始化方法的名稱。</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>A：init</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>B：__init__</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>C：main</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>D：__main__</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>( )：初始化方法的第一個參數。</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>A：self</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>B：init</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>C：constructor</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>D：begin</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>( )：衍生類別引用基底類別的關係要用哪一個方法。</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>A：__init__( )</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>B：__iter__( )</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>C：super( )</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>D：__getitem__( )</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>( )：有一個程式如下：!n輸出結果為何？</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>.\imgs\20190311Python教學考古選擇題img90.png</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>.\imgs\20190311Python教學考古選擇題img90A.png</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>.\imgs\20190311Python教學考古選擇題img90B.png</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>.\imgs\20190311Python教學考古選擇題img90C.png</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>.\imgs\20190311Python教學考古選擇題img90D.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>( )：有一個程式如下：!n輸出結果為何？</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>.\imgs\20190311Python教學考古選擇題img91.png</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>.\imgs\20190311Python教學考古選擇題img91A.png</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>.\imgs\20190311Python教學考古選擇題img91B.png</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>.\imgs\20190311Python教學考古選擇題img91C.png</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>.\imgs\20190311Python教學考古選擇題img91D.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>( )：有一個程式如下：!n輸出結果為何？</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>.\imgs\20190311Python教學考古選擇題img92.png</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>A：True</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>B：False</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>C：d, C</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>D：B</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>( )：有一個程式如下：!n輸出結果為何？</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>.\imgs\20190311Python教學考古選擇題img93.png</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>A：True</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>B：False</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>C：d, A</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>D：A</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>( )：在Python使用下列語法導入多個函數時，各函數間可以用什麼符號區隔。from module_name import functions，假設上述functions是一系列函數</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>.\imgs\20190311Python教學考古選擇題img93.png</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>A：句號”.”</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>B：逗號”,”</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>C：分號”;”</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>D：等號”=”</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>( )：Python語言在import右邊加上什麼符號代表導入所有函數。</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>A：句號”.”</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>B：逗號”,”</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>C：分號”;”</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>D：”*”</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>( )：有一個語法如下：import module_name xx alternative_name，上述xx可能是什麼關鍵字。</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>A：as</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>B：for</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>C：while</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>D：raise</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>( )：下列那一個方法可以重組串列的順序。</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>A：list( )</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>B：shuffle( )</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>C：choice( )</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>D：time( )</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>( )：下列那一個方法可以隨機傳回串列的元素。</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>A：list( )</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>B：shuffle( )</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>C：choice( )</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>D：time( )</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>( )：下列那一個方法傳回的資料無法判斷目前系統時間。</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>A：time( )</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>B：asctime( )</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>C：localtime( )</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>D：sleep( )</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>( )：下列那一個方法傳回的資料為可清楚閱讀的系統時間。</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>A：time( )</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>B：asctime( )</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>C：localtime( )</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>D：sleep( )</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>( )：下列那一個方法傳回的資料可用索引[]得到目前系統日期是今年的第幾天。</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>A：time( )</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>B：asctime( )</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>C：localtime( )</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>D：sleep( )</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>( )：那一個模組提供version屬性，可以得到目前Python系統版本訊息。</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>A：time</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>B：keyword</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>C：sys</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>D：random</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>( )：下列那一個屬性可以傳回Python所有關鍵字。</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>A：stdin</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>B：stdout</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>C：kwlist</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>D：iskeyword</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>( )：下列那一個方法可以獲得目前工作目錄。</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>A：getcwd( )</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>B：walk( )</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>C：mkdir( )</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>D：chdir( )</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>( )：下列那一個模組可以使用萬用字元”*”，列出特定工作目錄檔案資訊。</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>A：os</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>B：os.path</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>C：glob</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>D：zipfile</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>( )：下列那一個方法可以遍歷目錄樹。</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>A：getcwd( )</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>B：walk( )</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>C：mkdir( )</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>D：chdir( )</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>( )：如果開啟檔案是要將文件輸出到檔案的末端，open( )內的需要加上那一個參數。</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>A：’r’</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>B：’w’</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>C：’a’</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>D：‘c’</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>( )：shutil模組的move( )無法執行下列那一個工作。</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>A：檔案名稱的更改</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>B：目錄名稱的更改</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>C：檔案或目錄的移動</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>D：目錄的刪除</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>( )：下列那一個方法刪除檔案或目錄後可以在資源回收桶救回。</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>A：del( )</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>B：send2trash( )</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>C：rmdir( )</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>D：rmtree( )</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>( )：下列那一個模組可以執行壓縮或解壓縮zip檔案。</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>A：zipfile</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>B：os</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>C：shutil</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>D：send2trash</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>( )：下列那一個方法可以執行目錄名稱的更改。</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>A：move( )</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>B：rmtree( )</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>C：send2trash( )</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>D：copytree( )</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>( )：下列那一個模組的copy( )方法可以將字串資料拷貝至剪貼簿。</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>A：zipfile</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>B：shutil</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>C：os</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>D：pyperclip</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>( )：Python程式錯誤訊息的標註字串是。</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>A：Error</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>B：Message</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>C：Traceback</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>D：Warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>( )：除數為的異常訊息。</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>A：ZeroDivisionError</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>B：FileNotFoundError</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>C：TypeError</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>D：ValueError</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>( )：找不到所開啟的檔案的異常訊息。</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>A：ZeroDivisionError</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>B：FileNotFoundError</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>C：TypeError</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>D：ValueError</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>( )：在try – except的使用中一般的異常皆可捕捉。</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>A：ZeroDivisionError</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>B：FileNotFoundError</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>C：TypeError</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>D：Exception</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>( )：以字元當作除數或被除數運算時，所產生的異常。</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>A：ZeroDivisionError</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>B：FileNotFoundError</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>C：TypeError</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>D：ValueError</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>( )：在write( )內放那一個參數可以將Traceback字串寫入檔案。</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>A：traceback.format_exc( )</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>B：raise.exc( )</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>C：data.format_exc( )</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>D：file.exc( )</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>( )：下列那一個關鍵字需要與try配合使用，同時不論是否有異常發生一定會執行這個關鍵字內的程式碼。</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>A：except</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>B：else</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>C：finally</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>D：raise</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>( )：使用Python程式設計時，我們自行定義異常時同時丟出異常的關鍵字。</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>A：except</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>B：try</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>C：finally</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>D：raise</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>( )：下列那一個選想可以停用斷言assert。</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>A：-B</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>B：-W</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>C：-O</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>D：-E</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>( )：下列那一個是logging的最低等級。</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>A：DEBUG</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>B：INFO</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>C：WARNING</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>D：CRITICAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>( )：下列那一個是logging的最高等級。</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>A：DEBUG</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>B：INFO</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>C：WARNING</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>D：CRITICAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>( )：下列那一個是停用logging的最高等級。</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>A：logging.disable(logging.DEBUG)</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>B：logging.disable(logging.INFO)</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>C：logging.disable(logging.WARNING)</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>D：logging.disable(logging.CRITICAL)</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>( )：在正規表達式中，那一個是代表-的數字。</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>A：\s</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>B：\d</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>C：\w</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>D：\k</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>( )：有一個正規表達式是”r’\d{}”，下列那一個字串符合規定。</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>A：a12</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>B：13a</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>C：123</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>D：abc</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>( )：如果所搜尋的正規表達式字串有用小括號分組時，若是使用findall( )方法處理，會傳回串列，串列內的元素是那一種資料類型。</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>A：字串</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>B：串列</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>C：字典</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>D：元組</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>( )：下列那一個符號在正規表達式的搜尋比對，代表前方括號的正規表達式或字串是可有可無。</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>A：?</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>B：+</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>C：.</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>D：*</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>( )：下列那一個符號在正規表達式的搜尋比對，代表前方括號的正規表達式或字串是可從到多次。</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>A：?</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>B：+</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>C：.</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>D：*</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>( )：下列那一個符號在正規表達式的搜尋比對，代表前方括號的正規表達式或字串是可從到多次。</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>A：?</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>B：+</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>C：.</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>D：*</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>( )：下列那一個參數可以讓正規表達式的搜尋比對時忽略大小寫。</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>A：re.NONECASE</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>B：re.IGNORECASE</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>C：re.DOTALL</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>D：re.VERBOSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>( )：下列那一個參數可以讓正規表達式內部的可以有註解文字。</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>A：re.NONECASE</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>B：re.IGNORECASE</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>C：re.DOTALL</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>D：re.VERBOSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>( )：那一個符號可以將正規表達式的搜尋由貪婪模式改成非貪婪模式。</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>A：?</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>B：+</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>C：.</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>D：*</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>( )：空白字元是那一種正規表達式的字元。</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>A：\d</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>B：\s</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>C：\w</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>D：\b</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>( )：有一個正規表達式是[^aeiouAEIOU]，下列那一個字元符合搜尋條件。</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>A：a</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>B：O</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>C：u</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>D：z</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>( )：有一個正規表達式是[^aeiouAEIOU]，下列那一個字元符合搜尋條件。</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>A：a</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>B：O</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>C：u</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>D：z</t>
         </is>
       </c>
     </row>

--- a/exam_data.xlsx
+++ b/exam_data.xlsx
@@ -5,18 +5,126 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myprogram\dist\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myprogram\practice\Python\flet\certificate_exam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE6DFEC-FFFB-46EC-B3BD-1ACCFA5C6F3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{457E8A5A-4811-47BB-8F82-06AC70E2D8DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="表格格式" sheetId="1" r:id="rId1"/>
+    <sheet name="example" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+  <si>
+    <t>題目</t>
+  </si>
+  <si>
+    <t>題目圖片</t>
+  </si>
+  <si>
+    <t>正確答案</t>
+  </si>
+  <si>
+    <t>選項1</t>
+  </si>
+  <si>
+    <t>選項2</t>
+  </si>
+  <si>
+    <t>選項3</t>
+  </si>
+  <si>
+    <t>選項4</t>
+  </si>
+  <si>
+    <t>( )：有一個Python程式如下：!n執行完後!n可以得到下列結果。</t>
+  </si>
+  <si>
+    <t>./assets/imgs/exampleimg1.png</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>A：big</t>
+  </si>
+  <si>
+    <t>B：small</t>
+  </si>
+  <si>
+    <t>C：medium</t>
+  </si>
+  <si>
+    <t>D：large</t>
+  </si>
+  <si>
+    <t>( )：xAA的進位值是多少？</t>
+  </si>
+  <si>
+    <t>A：98</t>
+  </si>
+  <si>
+    <t>B：80</t>
+  </si>
+  <si>
+    <t>C：210</t>
+  </si>
+  <si>
+    <t>D：170</t>
+  </si>
+  <si>
+    <t>( )：有一個Python程式如下：!n可以得到下列結果。</t>
+  </si>
+  <si>
+    <t>./assets/imgs/exampleimg3.png</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>./assets/imgs/exampleimg3A.png</t>
+  </si>
+  <si>
+    <t>./assets/imgs/exampleimg3B.png</t>
+  </si>
+  <si>
+    <t>./assets/imgs/exampleimg3C.png</t>
+  </si>
+  <si>
+    <t>./assets/imgs/exampleimg3D.png</t>
+  </si>
+  <si>
+    <t>( )：下列哪些屬於大數據的特性？(複選題)</t>
+  </si>
+  <si>
+    <t>ACD</t>
+  </si>
+  <si>
+    <t>A：大量化，可處理TB與PB以上資料</t>
+  </si>
+  <si>
+    <t>B：隨機化，隨機抽取資料以利於進行統計分析</t>
+  </si>
+  <si>
+    <t>C：多樣化，資料涵蓋影音、圖片、文字等類型</t>
+  </si>
+  <si>
+    <t>D：快速化，隨時產生大量顧客消費資料</t>
+  </si>
+  <si>
+    <t>( )：Python在程式流程控制中，條件判斷所得的是布林值，然後依此布林值執行流程控制。</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -50,8 +158,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -366,12 +477,155 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="81.58203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.08203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="42.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/exam_data.xlsx
+++ b/exam_data.xlsx
@@ -1,146 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myprogram\practice\Python\flet\certificate_exam\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{457E8A5A-4811-47BB-8F82-06AC70E2D8DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="表格格式" sheetId="1" r:id="rId1"/>
-    <sheet name="example" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="表格格式" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="example" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
-  <si>
-    <t>題目</t>
-  </si>
-  <si>
-    <t>題目圖片</t>
-  </si>
-  <si>
-    <t>正確答案</t>
-  </si>
-  <si>
-    <t>選項1</t>
-  </si>
-  <si>
-    <t>選項2</t>
-  </si>
-  <si>
-    <t>選項3</t>
-  </si>
-  <si>
-    <t>選項4</t>
-  </si>
-  <si>
-    <t>( )：有一個Python程式如下：!n執行完後!n可以得到下列結果。</t>
-  </si>
-  <si>
-    <t>./assets/imgs/exampleimg1.png</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>A：big</t>
-  </si>
-  <si>
-    <t>B：small</t>
-  </si>
-  <si>
-    <t>C：medium</t>
-  </si>
-  <si>
-    <t>D：large</t>
-  </si>
-  <si>
-    <t>( )：xAA的進位值是多少？</t>
-  </si>
-  <si>
-    <t>A：98</t>
-  </si>
-  <si>
-    <t>B：80</t>
-  </si>
-  <si>
-    <t>C：210</t>
-  </si>
-  <si>
-    <t>D：170</t>
-  </si>
-  <si>
-    <t>( )：有一個Python程式如下：!n可以得到下列結果。</t>
-  </si>
-  <si>
-    <t>./assets/imgs/exampleimg3.png</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>./assets/imgs/exampleimg3A.png</t>
-  </si>
-  <si>
-    <t>./assets/imgs/exampleimg3B.png</t>
-  </si>
-  <si>
-    <t>./assets/imgs/exampleimg3C.png</t>
-  </si>
-  <si>
-    <t>./assets/imgs/exampleimg3D.png</t>
-  </si>
-  <si>
-    <t>( )：下列哪些屬於大數據的特性？(複選題)</t>
-  </si>
-  <si>
-    <t>ACD</t>
-  </si>
-  <si>
-    <t>A：大量化，可處理TB與PB以上資料</t>
-  </si>
-  <si>
-    <t>B：隨機化，隨機抽取資料以利於進行統計分析</t>
-  </si>
-  <si>
-    <t>C：多樣化，資料涵蓋影音、圖片、文字等類型</t>
-  </si>
-  <si>
-    <t>D：快速化，隨時產生大量顧客消費資料</t>
-  </si>
-  <si>
-    <t>( )：Python在程式流程控制中，條件判斷所得的是布林值，然後依此布林值執行流程控制。</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -159,24 +47,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -476,36 +423,54 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15.5"/>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
+    <row r="1" customFormat="1" s="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>題目</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>題目圖片</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>正確答案</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>選項1</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>選項2</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>選項3</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>選項4</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -514,115 +479,190 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="81.58203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.08203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="42.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.5" bestFit="1" customWidth="1"/>
+    <col width="81.58203125" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="27.08203125" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="4.25" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="32.5" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="42.5" bestFit="1" customWidth="1" min="5" max="6"/>
+    <col width="36.5" bestFit="1" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" t="s">
-        <v>13</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>( )：有一個Python程式如下：!n&lt;img&gt;!n執行完後!n可以得到下列結果。</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>['./assets/imgs/exampleimg1_1.png', '', '']</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>A：big</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>B：small</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>C：medium</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>D：large</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>( )：0xAA的10進位值是多少？</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>A：98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>B：80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>C：210</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>D：170</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" t="s">
-        <v>25</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>( )：有一個Python程式如下：!n&lt;img&gt;!n可以得到下列結果。</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>['./assets/imgs/exampleimg3_1.png', '']</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>./assets/imgs/exampleimg3A.png</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>./assets/imgs/exampleimg3B.png</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>./assets/imgs/exampleimg3C.png</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>./assets/imgs/exampleimg3D.png</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" t="s">
-        <v>31</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>( )：下列哪些屬於大數據的特性？（複選題）</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>ACD</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>A：大量化，可處理TB與PB以上資料</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>B：隨機化，隨機抽取資料以利於進行統計分析</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>C：多樣化，資料涵蓋影音、圖片、文字等類型</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>D：快速化，隨時產生大量顧客消費資料</t>
+        </is>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>( )：Python在程式流程控制中，條件判斷所得的是布林值，然後依此布林值執行流程控制。</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
       </c>
     </row>
   </sheetData>
